--- a/experiment_results.xlsx
+++ b/experiment_results.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.03430823201920286</v>
+        <v>0.01447432520322293</v>
       </c>
       <c r="C2">
-        <v>0.3102924696057608</v>
+        <v>0.2956577024390331</v>
       </c>
       <c r="D2">
         <v>0.3</v>
@@ -477,7 +477,7 @@
         <v>100</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>50</v>
@@ -486,10 +486,10 @@
         <v>0.05</v>
       </c>
       <c r="L2">
-        <v>0.2075497631220375</v>
+        <v>0.06984859344282994</v>
       </c>
       <c r="M2">
-        <v>0.4613345426612703</v>
+        <v>0.1663995843202143</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_results.xlsx
+++ b/experiment_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>alpha_error</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>func2_upper</t>
+  </si>
+  <si>
+    <t>kendall_tau</t>
   </si>
   <si>
     <t>noise</t>
@@ -407,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,16 +453,19 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.01447432520322293</v>
+        <v>0.1277997657061024</v>
       </c>
       <c r="C2">
-        <v>0.2956577024390331</v>
+        <v>0.2616600702881693</v>
       </c>
       <c r="D2">
         <v>0.3</v>
@@ -477,19 +483,22 @@
         <v>100</v>
       </c>
       <c r="I2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
         <v>0.05</v>
       </c>
-      <c r="L2">
-        <v>0.06984859344282994</v>
-      </c>
       <c r="M2">
-        <v>0.1663995843202143</v>
+        <v>0.1474788652027809</v>
+      </c>
+      <c r="N2">
+        <v>0.4161488409289216</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_results.xlsx
+++ b/experiment_results.xlsx
@@ -13,62 +13,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>alpha_error</t>
-  </si>
-  <si>
-    <t>alpha_learned</t>
-  </si>
-  <si>
-    <t>alpha_true</t>
-  </si>
-  <si>
-    <t>func1_lower</t>
-  </si>
-  <si>
-    <t>func1_upper</t>
-  </si>
-  <si>
-    <t>func2_lower</t>
-  </si>
-  <si>
-    <t>func2_upper</t>
-  </si>
-  <si>
-    <t>kendall_tau</t>
-  </si>
-  <si>
-    <t>noise</t>
-  </si>
-  <si>
-    <t>num_points</t>
-  </si>
-  <si>
-    <t>tolerance</t>
-  </si>
-  <si>
-    <t>weight1</t>
-  </si>
-  <si>
-    <t>weight2</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,7 +32,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -92,30 +40,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,98 +340,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.1277997657061024</v>
-      </c>
-      <c r="C2">
-        <v>0.2616600702881693</v>
-      </c>
-      <c r="D2">
-        <v>0.3</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>150</v>
-      </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2">
-        <v>100</v>
-      </c>
-      <c r="L2">
-        <v>0.05</v>
-      </c>
-      <c r="M2">
-        <v>0.1474788652027809</v>
-      </c>
-      <c r="N2">
-        <v>0.4161488409289216</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/experiment_results.xlsx
+++ b/experiment_results.xlsx
@@ -13,10 +13,44 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>num_points_each_iteration</t>
+  </si>
+  <si>
+    <t>random_sampling</t>
+  </si>
+  <si>
+    <t>relative_alpha_error_after_10_iterations</t>
+  </si>
+  <si>
+    <t>relative_alpha_error_after_15_iterations</t>
+  </si>
+  <si>
+    <t>relative_alpha_error_after_20_iterations</t>
+  </si>
+  <si>
+    <t>relative_alpha_error_after_25_iterations</t>
+  </si>
+  <si>
+    <t>relative_alpha_error_after_30_iterations</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +74,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +392,400 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.000802270174410924</v>
+      </c>
+      <c r="E2">
+        <v>0.008432893186156403</v>
+      </c>
+      <c r="F2">
+        <v>0.01202444313325631</v>
+      </c>
+      <c r="G2">
+        <v>0.01306277510079853</v>
+      </c>
+      <c r="H2">
+        <v>0.01755631212639589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.01057457463907304</v>
+      </c>
+      <c r="E3">
+        <v>0.003342814415102276</v>
+      </c>
+      <c r="F3">
+        <v>0.01059104452346564</v>
+      </c>
+      <c r="G3">
+        <v>0.01576334511326087</v>
+      </c>
+      <c r="H3">
+        <v>0.01823061180456239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.01032983218583602</v>
+      </c>
+      <c r="E4">
+        <v>0.005168758309044471</v>
+      </c>
+      <c r="F4">
+        <v>0.003533012994248093</v>
+      </c>
+      <c r="G4">
+        <v>0.003748936919428236</v>
+      </c>
+      <c r="H4">
+        <v>0.004107727605366004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.03791327717038403</v>
+      </c>
+      <c r="E5">
+        <v>0.03160852021082738</v>
+      </c>
+      <c r="F5">
+        <v>0.02448279140578602</v>
+      </c>
+      <c r="G5">
+        <v>0.02069516656615182</v>
+      </c>
+      <c r="H5">
+        <v>0.0168091033880674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.007201630534111048</v>
+      </c>
+      <c r="E6">
+        <v>0.009028800049803073</v>
+      </c>
+      <c r="F6">
+        <v>0.01003067015807343</v>
+      </c>
+      <c r="G6">
+        <v>0.01077014860919397</v>
+      </c>
+      <c r="H6">
+        <v>0.01119055223872678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.002006958309925071</v>
+      </c>
+      <c r="E7">
+        <v>0.001823977345446481</v>
+      </c>
+      <c r="F7">
+        <v>0.001076260794621864</v>
+      </c>
+      <c r="G7">
+        <v>0.0001663867929537396</v>
+      </c>
+      <c r="H7">
+        <v>0.0001882612350145862</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>17</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.001994593614605966</v>
+      </c>
+      <c r="E8">
+        <v>0.001324329857244807</v>
+      </c>
+      <c r="F8">
+        <v>0.001165109411414752</v>
+      </c>
+      <c r="G8">
+        <v>0.001100933422508536</v>
+      </c>
+      <c r="H8">
+        <v>0.0007000744527413394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.7327988852883954</v>
+      </c>
+      <c r="E9">
+        <v>0.7340388158543319</v>
+      </c>
+      <c r="F9">
+        <v>0.7349429721207573</v>
+      </c>
+      <c r="G9">
+        <v>0.7354854581294562</v>
+      </c>
+      <c r="H9">
+        <v>0.7358471199246247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.02402262762829492</v>
+      </c>
+      <c r="E10">
+        <v>0.03117701382119753</v>
+      </c>
+      <c r="F10">
+        <v>0.03475419525375278</v>
+      </c>
+      <c r="G10">
+        <v>0.03690052929150219</v>
+      </c>
+      <c r="H10">
+        <v>0.03833140060530556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.00126862984438129</v>
+      </c>
+      <c r="E11">
+        <v>0.003627392865124997</v>
+      </c>
+      <c r="F11">
+        <v>0.005825185891336996</v>
+      </c>
+      <c r="G11">
+        <v>0.00714384375202104</v>
+      </c>
+      <c r="H11">
+        <v>0.008189778006903089</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.05816276483793145</v>
+      </c>
+      <c r="E12">
+        <v>0.04923737251098644</v>
+      </c>
+      <c r="F12">
+        <v>0.04475496492850006</v>
+      </c>
+      <c r="G12">
+        <v>0.0419672442936749</v>
+      </c>
+      <c r="H12">
+        <v>0.04025039998208135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.04177783157812161</v>
+      </c>
+      <c r="E13">
+        <v>0.03828827579855514</v>
+      </c>
+      <c r="F13">
+        <v>0.03581853377448818</v>
+      </c>
+      <c r="G13">
+        <v>0.03491667516545412</v>
+      </c>
+      <c r="H13">
+        <v>0.03431545378282108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.02099502270217028</v>
+      </c>
+      <c r="E14">
+        <v>0.01837955132936849</v>
+      </c>
+      <c r="F14">
+        <v>0.01638201911007942</v>
+      </c>
+      <c r="G14">
+        <v>0.01566863496764622</v>
+      </c>
+      <c r="H14">
+        <v>0.01470819167452009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>17</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.002528200924564369</v>
+      </c>
+      <c r="E15">
+        <v>0.002503276932699731</v>
+      </c>
+      <c r="F15">
+        <v>0.00263721280494363</v>
+      </c>
+      <c r="G15">
+        <v>0.002892661808235701</v>
+      </c>
+      <c r="H15">
+        <v>0.002952010739757371</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/experiment_results.xlsx
+++ b/experiment_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>num_points_each_iteration</t>
   </si>
@@ -28,6 +28,9 @@
     <t>relative_alpha_error_after_15_iterations</t>
   </si>
   <si>
+    <t>relative_alpha_error_after_1_iteration</t>
+  </si>
+  <si>
     <t>relative_alpha_error_after_20_iterations</t>
   </si>
   <si>
@@ -35,6 +38,9 @@
   </si>
   <si>
     <t>relative_alpha_error_after_30_iterations</t>
+  </si>
+  <si>
+    <t>relative_alpha_error_after_5_iterations</t>
   </si>
 </sst>
 </file>
@@ -392,13 +398,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,369 +426,523 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.000802270174410924</v>
+        <v>2.947776303808803</v>
       </c>
       <c r="E2">
-        <v>0.008432893186156403</v>
+        <v>1.985441106209676</v>
       </c>
       <c r="F2">
-        <v>0.01202444313325631</v>
+        <v>3.552840794298466</v>
       </c>
       <c r="G2">
-        <v>0.01306277510079853</v>
+        <v>1.501182429009866</v>
       </c>
       <c r="H2">
-        <v>0.01755631212639589</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>1.20480314019857</v>
+      </c>
+      <c r="I2">
+        <v>1.005946609786591</v>
+      </c>
+      <c r="J2">
+        <v>5.794917724460816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.01057457463907304</v>
+        <v>0.1170935905625914</v>
       </c>
       <c r="E3">
-        <v>0.003342814415102276</v>
+        <v>0.07860708219272372</v>
       </c>
       <c r="F3">
-        <v>0.01059104452346564</v>
+        <v>0.4837983535918744</v>
       </c>
       <c r="G3">
-        <v>0.01576334511326087</v>
+        <v>0.0641125318252761</v>
       </c>
       <c r="H3">
-        <v>0.01823061180456239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.05472685712349231</v>
+      </c>
+      <c r="I3">
+        <v>0.04480266450784384</v>
+      </c>
+      <c r="J3">
+        <v>0.2090895306927989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.01032983218583602</v>
+        <v>0.07802223847957979</v>
       </c>
       <c r="E4">
-        <v>0.005168758309044471</v>
+        <v>0.04924839628087967</v>
       </c>
       <c r="F4">
-        <v>0.003533012994248093</v>
+        <v>0.5661676224983764</v>
       </c>
       <c r="G4">
-        <v>0.003748936919428236</v>
+        <v>0.03475728085668299</v>
       </c>
       <c r="H4">
-        <v>0.004107727605366004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.02597617281385282</v>
+      </c>
+      <c r="I4">
+        <v>0.02010454316744237</v>
+      </c>
+      <c r="J4">
+        <v>0.1422970916667042</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.03791327717038403</v>
+        <v>0.004909608019319315</v>
       </c>
       <c r="E5">
-        <v>0.03160852021082738</v>
+        <v>0.005240011658224446</v>
       </c>
       <c r="F5">
-        <v>0.02448279140578602</v>
+        <v>0.1903227459786433</v>
       </c>
       <c r="G5">
-        <v>0.02069516656615182</v>
+        <v>0.003205079537228114</v>
       </c>
       <c r="H5">
-        <v>0.0168091033880674</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.002152817312298105</v>
+      </c>
+      <c r="I5">
+        <v>0.0007601634513150953</v>
+      </c>
+      <c r="J5">
+        <v>0.002416704414164121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.007201630534111048</v>
+        <v>0.02903191822250203</v>
       </c>
       <c r="E6">
-        <v>0.009028800049803073</v>
+        <v>0.02287840651218953</v>
       </c>
       <c r="F6">
-        <v>0.01003067015807343</v>
+        <v>0.2080632890198582</v>
       </c>
       <c r="G6">
-        <v>0.01077014860919397</v>
+        <v>0.01945377532399909</v>
       </c>
       <c r="H6">
-        <v>0.01119055223872678</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.0167446420764189</v>
+      </c>
+      <c r="I6">
+        <v>0.01498489217717206</v>
+      </c>
+      <c r="J6">
+        <v>0.04341299046360288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.002006958309925071</v>
+        <v>0.01776579721502562</v>
       </c>
       <c r="E7">
-        <v>0.001823977345446481</v>
+        <v>0.01626393826484551</v>
       </c>
       <c r="F7">
-        <v>0.001076260794621864</v>
+        <v>0.02370520942226599</v>
       </c>
       <c r="G7">
-        <v>0.0001663867929537396</v>
+        <v>0.01583091077806224</v>
       </c>
       <c r="H7">
-        <v>0.0001882612350145862</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.01542157487112931</v>
+      </c>
+      <c r="I7">
+        <v>0.01526467244748327</v>
+      </c>
+      <c r="J7">
+        <v>0.02038102655802732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.001994593614605966</v>
+        <v>0.01461037078783589</v>
       </c>
       <c r="E8">
-        <v>0.001324329857244807</v>
+        <v>0.01276715882595721</v>
       </c>
       <c r="F8">
-        <v>0.001165109411414752</v>
+        <v>0.008692346320020028</v>
       </c>
       <c r="G8">
-        <v>0.001100933422508536</v>
+        <v>0.01183785992109332</v>
       </c>
       <c r="H8">
-        <v>0.0007000744527413394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.01173944778600685</v>
+      </c>
+      <c r="I8">
+        <v>0.01104047045026831</v>
+      </c>
+      <c r="J8">
+        <v>0.01200623243255483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.7327988852883954</v>
+        <v>0.003512729418174894</v>
       </c>
       <c r="E9">
-        <v>0.7340388158543319</v>
+        <v>0.005065239350951489</v>
       </c>
       <c r="F9">
-        <v>0.7349429721207573</v>
+        <v>0.005837324762449358</v>
       </c>
       <c r="G9">
-        <v>0.7354854581294562</v>
+        <v>0.005823702500901695</v>
       </c>
       <c r="H9">
-        <v>0.7358471199246247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.006736666469916812</v>
+      </c>
+      <c r="I9">
+        <v>0.007264779212337777</v>
+      </c>
+      <c r="J9">
+        <v>0.007389767162516899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02402262762829492</v>
+        <v>0.007164763444613328</v>
       </c>
       <c r="E10">
-        <v>0.03117701382119753</v>
+        <v>0.0427025454763171</v>
       </c>
       <c r="F10">
-        <v>0.03475419525375278</v>
+        <v>0.9523554551595969</v>
       </c>
       <c r="G10">
-        <v>0.03690052929150219</v>
+        <v>0.05558385630324588</v>
       </c>
       <c r="H10">
-        <v>0.03833140060530556</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.06016928864237381</v>
+      </c>
+      <c r="I10">
+        <v>0.06911152959743853</v>
+      </c>
+      <c r="J10">
+        <v>0.09944860037581087</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.00126862984438129</v>
+        <v>0.7327988852883954</v>
       </c>
       <c r="E11">
-        <v>0.003627392865124997</v>
+        <v>0.7340388158543319</v>
       </c>
       <c r="F11">
-        <v>0.005825185891336996</v>
+        <v>0.6890899285189739</v>
       </c>
       <c r="G11">
-        <v>0.00714384375202104</v>
+        <v>0.7349429721207573</v>
       </c>
       <c r="H11">
-        <v>0.008189778006903089</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.7354854581294562</v>
+      </c>
+      <c r="I11">
+        <v>0.7358471199246247</v>
+      </c>
+      <c r="J11">
+        <v>0.7279423416763248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05816276483793145</v>
+        <v>0.02402262762829492</v>
       </c>
       <c r="E12">
-        <v>0.04923737251098644</v>
+        <v>0.03117701382119753</v>
       </c>
       <c r="F12">
-        <v>0.04475496492850006</v>
+        <v>0.1691454931067658</v>
       </c>
       <c r="G12">
-        <v>0.0419672442936749</v>
+        <v>0.03475419525375278</v>
       </c>
       <c r="H12">
-        <v>0.04025039998208135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.03690052929150219</v>
+      </c>
+      <c r="I12">
+        <v>0.03833140060530556</v>
+      </c>
+      <c r="J12">
+        <v>0.002559518198012404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04177783157812161</v>
+        <v>0.00126862984438129</v>
       </c>
       <c r="E13">
-        <v>0.03828827579855514</v>
+        <v>0.003627392865124997</v>
       </c>
       <c r="F13">
-        <v>0.03581853377448818</v>
+        <v>0.1313861578442381</v>
       </c>
       <c r="G13">
-        <v>0.03491667516545412</v>
+        <v>0.005825185891336996</v>
       </c>
       <c r="H13">
-        <v>0.03431545378282108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.00714384375202104</v>
+      </c>
+      <c r="I13">
+        <v>0.008189778006903089</v>
+      </c>
+      <c r="J13">
+        <v>0.01634277630581234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02099502270217028</v>
+        <v>0.05816276483793145</v>
       </c>
       <c r="E14">
-        <v>0.01837955132936849</v>
+        <v>0.04923737251098644</v>
       </c>
       <c r="F14">
-        <v>0.01638201911007942</v>
+        <v>0.2522103317982934</v>
       </c>
       <c r="G14">
-        <v>0.01566863496764622</v>
+        <v>0.04475496492850006</v>
       </c>
       <c r="H14">
-        <v>0.01470819167452009</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.0419672442936749</v>
+      </c>
+      <c r="I14">
+        <v>0.04025039998208135</v>
+      </c>
+      <c r="J14">
+        <v>0.07673751203841192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
       <c r="D15">
+        <v>0.04177783157812161</v>
+      </c>
+      <c r="E15">
+        <v>0.03828827579855514</v>
+      </c>
+      <c r="F15">
+        <v>0.1411201742497696</v>
+      </c>
+      <c r="G15">
+        <v>0.03581853377448818</v>
+      </c>
+      <c r="H15">
+        <v>0.03491667516545412</v>
+      </c>
+      <c r="I15">
+        <v>0.03431545378282108</v>
+      </c>
+      <c r="J15">
+        <v>0.05327138480079911</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0.02099502270217028</v>
+      </c>
+      <c r="E16">
+        <v>0.01837955132936849</v>
+      </c>
+      <c r="F16">
+        <v>0.07474972519408893</v>
+      </c>
+      <c r="G16">
+        <v>0.01638201911007942</v>
+      </c>
+      <c r="H16">
+        <v>0.01566863496764622</v>
+      </c>
+      <c r="I16">
+        <v>0.01470819167452009</v>
+      </c>
+      <c r="J16">
+        <v>0.02868650054789849</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>0.002528200924564369</v>
       </c>
-      <c r="E15">
+      <c r="E17">
         <v>0.002503276932699731</v>
       </c>
-      <c r="F15">
+      <c r="F17">
+        <v>0.002229659033552249</v>
+      </c>
+      <c r="G17">
         <v>0.00263721280494363</v>
       </c>
-      <c r="G15">
+      <c r="H17">
         <v>0.002892661808235701</v>
       </c>
-      <c r="H15">
+      <c r="I17">
         <v>0.002952010739757371</v>
+      </c>
+      <c r="J17">
+        <v>0.002158688739411867</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_results.xlsx
+++ b/experiment_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>num_points_each_iteration</t>
   </si>
@@ -41,6 +41,27 @@
   </si>
   <si>
     <t>relative_alpha_error_after_5_iterations</t>
+  </si>
+  <si>
+    <t>relative_alpha_error_after_iteration_1</t>
+  </si>
+  <si>
+    <t>relative_alpha_error_after_iteration_10</t>
+  </si>
+  <si>
+    <t>relative_alpha_error_after_iteration_15</t>
+  </si>
+  <si>
+    <t>relative_alpha_error_after_iteration_20</t>
+  </si>
+  <si>
+    <t>relative_alpha_error_after_iteration_25</t>
+  </si>
+  <si>
+    <t>relative_alpha_error_after_iteration_30</t>
+  </si>
+  <si>
+    <t>relative_alpha_error_after_iteration_5</t>
   </si>
 </sst>
 </file>
@@ -398,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,8 +453,29 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,28 +486,49 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2.947776303808803</v>
+        <v>0.5488540802001152</v>
       </c>
       <c r="E2">
-        <v>1.985441106209676</v>
+        <v>0.3649986064113902</v>
       </c>
       <c r="F2">
-        <v>3.552840794298466</v>
+        <v>2.378037338096075</v>
       </c>
       <c r="G2">
-        <v>1.501182429009866</v>
+        <v>0.2728005239410588</v>
       </c>
       <c r="H2">
-        <v>1.20480314019857</v>
+        <v>0.2211853672588167</v>
       </c>
       <c r="I2">
-        <v>1.005946609786591</v>
+        <v>0.1886315504288308</v>
       </c>
       <c r="J2">
-        <v>5.794917724460816</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>0.9209616676742499</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -476,28 +539,49 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1170935905625914</v>
+        <v>0.2712670568592265</v>
       </c>
       <c r="E3">
-        <v>0.07860708219272372</v>
+        <v>0.1811733728584068</v>
       </c>
       <c r="F3">
-        <v>0.4837983535918744</v>
+        <v>2.026914554654362</v>
       </c>
       <c r="G3">
-        <v>0.0641125318252761</v>
+        <v>0.1361006303658363</v>
       </c>
       <c r="H3">
-        <v>0.05472685712349231</v>
+        <v>0.1089382621928723</v>
       </c>
       <c r="I3">
-        <v>0.04480266450784384</v>
+        <v>0.09112012042493864</v>
       </c>
       <c r="J3">
-        <v>0.2090895306927989</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>0.5019271877050157</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -508,28 +592,49 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.07802223847957979</v>
+        <v>0.008186392312390564</v>
       </c>
       <c r="E4">
-        <v>0.04924839628087967</v>
+        <v>0.00931387486172645</v>
       </c>
       <c r="F4">
-        <v>0.5661676224983764</v>
+        <v>0.001704213644740567</v>
       </c>
       <c r="G4">
-        <v>0.03475728085668299</v>
+        <v>0.01117582839239998</v>
       </c>
       <c r="H4">
-        <v>0.02597617281385282</v>
+        <v>0.01244477453101633</v>
       </c>
       <c r="I4">
-        <v>0.02010454316744237</v>
+        <v>0.01262933371815804</v>
       </c>
       <c r="J4">
-        <v>0.1422970916667042</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>0.01459610493654747</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -540,28 +645,49 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.004909608019319315</v>
+        <v>0.02500839221722358</v>
       </c>
       <c r="E5">
-        <v>0.005240011658224446</v>
+        <v>0.0218350255446829</v>
       </c>
       <c r="F5">
-        <v>0.1903227459786433</v>
+        <v>0.05519039394535741</v>
       </c>
       <c r="G5">
-        <v>0.003205079537228114</v>
+        <v>0.0185732227237706</v>
       </c>
       <c r="H5">
-        <v>0.002152817312298105</v>
+        <v>0.01823140495024448</v>
       </c>
       <c r="I5">
-        <v>0.0007601634513150953</v>
+        <v>0.01771966224288472</v>
       </c>
       <c r="J5">
-        <v>0.002416704414164121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>0.03823094823823536</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -572,28 +698,49 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.02903191822250203</v>
+        <v>0.00601265861328267</v>
       </c>
       <c r="E6">
-        <v>0.02287840651218953</v>
+        <v>0.008565041918176716</v>
       </c>
       <c r="F6">
-        <v>0.2080632890198582</v>
+        <v>0.002908785011247102</v>
       </c>
       <c r="G6">
-        <v>0.01945377532399909</v>
+        <v>0.008134139372493004</v>
       </c>
       <c r="H6">
-        <v>0.0167446420764189</v>
+        <v>0.009301077730863491</v>
       </c>
       <c r="I6">
-        <v>0.01498489217717206</v>
+        <v>0.009895934847668486</v>
       </c>
       <c r="J6">
-        <v>0.04341299046360288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>0.004831840590219424</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -604,28 +751,49 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.01776579721502562</v>
+        <v>0.003990823463148238</v>
       </c>
       <c r="E7">
-        <v>0.01626393826484551</v>
+        <v>0.001939369776679338</v>
       </c>
       <c r="F7">
-        <v>0.02370520942226599</v>
+        <v>0.04534862704547023</v>
       </c>
       <c r="G7">
-        <v>0.01583091077806224</v>
+        <v>0.0003351547191010606</v>
       </c>
       <c r="H7">
-        <v>0.01542157487112931</v>
+        <v>0.0007543261580859422</v>
       </c>
       <c r="I7">
-        <v>0.01526467244748327</v>
+        <v>0.001827949714742575</v>
       </c>
       <c r="J7">
-        <v>0.02038102655802732</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>0.01112801565117487</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -636,28 +804,49 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.01461037078783589</v>
+        <v>0.01253756641857247</v>
       </c>
       <c r="E8">
-        <v>0.01276715882595721</v>
+        <v>0.009382710640999752</v>
       </c>
       <c r="F8">
-        <v>0.008692346320020028</v>
+        <v>0.03120512583345355</v>
       </c>
       <c r="G8">
-        <v>0.01183785992109332</v>
+        <v>0.007913195821811122</v>
       </c>
       <c r="H8">
-        <v>0.01173944778600685</v>
+        <v>0.0067765075853408</v>
       </c>
       <c r="I8">
-        <v>0.01104047045026831</v>
+        <v>0.005947226712228101</v>
       </c>
       <c r="J8">
-        <v>0.01200623243255483</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>0.02256587043530397</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -668,28 +857,49 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.003512729418174894</v>
+        <v>0.008118500372517601</v>
       </c>
       <c r="E9">
-        <v>0.005065239350951489</v>
+        <v>0.005557682989473789</v>
       </c>
       <c r="F9">
-        <v>0.005837324762449358</v>
+        <v>0.02059339391031867</v>
       </c>
       <c r="G9">
-        <v>0.005823702500901695</v>
+        <v>0.005726714791491339</v>
       </c>
       <c r="H9">
-        <v>0.006736666469916812</v>
+        <v>0.005150616477743361</v>
       </c>
       <c r="I9">
-        <v>0.007264779212337777</v>
+        <v>0.0039446624551287</v>
       </c>
       <c r="J9">
-        <v>0.007389767162516899</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>0.01335791575181951</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -720,8 +930,29 @@
       <c r="J10">
         <v>0.09944860037581087</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -752,8 +983,29 @@
       <c r="J11">
         <v>0.7279423416763248</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -784,8 +1036,29 @@
       <c r="J12">
         <v>0.002559518198012404</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -816,8 +1089,29 @@
       <c r="J13">
         <v>0.01634277630581234</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -848,8 +1142,29 @@
       <c r="J14">
         <v>0.07673751203841192</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -880,8 +1195,29 @@
       <c r="J15">
         <v>0.05327138480079911</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -912,8 +1248,29 @@
       <c r="J16">
         <v>0.02868650054789849</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -943,6 +1300,27 @@
       </c>
       <c r="J17">
         <v>0.002158688739411867</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_results.xlsx
+++ b/experiment_results.xlsx
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,22 +462,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.03313503758858027</v>
+        <v>3.044012606912228</v>
       </c>
       <c r="E2">
-        <v>0.02398692996236407</v>
+        <v>2.130937395382903</v>
       </c>
       <c r="F2">
-        <v>0.05389136316433581</v>
+        <v>3.216466245049682</v>
       </c>
       <c r="G2">
-        <v>0.05240341873512874</v>
+        <v>3.62264496822141</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -506,22 +506,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.01234173036565904</v>
+        <v>0.3309258782030115</v>
       </c>
       <c r="E3">
-        <v>0.01423184858280598</v>
+        <v>0.2345183003469831</v>
       </c>
       <c r="F3">
-        <v>0.05744844492845477</v>
+        <v>2.999602228464676</v>
       </c>
       <c r="G3">
-        <v>0.004377962007531637</v>
+        <v>0.6171263959040454</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -550,22 +550,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.03641756100064805</v>
+        <v>0.01715952240747887</v>
       </c>
       <c r="E4">
-        <v>0.03105103116065618</v>
+        <v>0.01206668888703077</v>
       </c>
       <c r="F4">
-        <v>0.1526907837387439</v>
+        <v>0.003019191485913453</v>
       </c>
       <c r="G4">
-        <v>0.0484718330871888</v>
+        <v>0.037988472957645</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -594,22 +594,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.04521734202520741</v>
+        <v>0.4522684607042003</v>
       </c>
       <c r="E5">
-        <v>0.04369464179066307</v>
+        <v>0.3154538378704121</v>
       </c>
       <c r="F5">
-        <v>0.08332152410215898</v>
+        <v>4.393448314198348</v>
       </c>
       <c r="G5">
-        <v>0.04994229837770425</v>
+        <v>0.867194547100209</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -638,22 +638,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.03985682015332189</v>
+        <v>0.002449663771459758</v>
       </c>
       <c r="E6">
-        <v>0.04062836719702793</v>
+        <v>0.004050794796050343</v>
       </c>
       <c r="F6">
-        <v>0.0422178801500489</v>
+        <v>0.01908844686755858</v>
       </c>
       <c r="G6">
-        <v>0.04140393459587999</v>
+        <v>0.001048577541693704</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -682,42 +682,482 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.04635185796960817</v>
+      </c>
+      <c r="E7">
+        <v>0.03935749562623733</v>
+      </c>
+      <c r="F7">
+        <v>0.02210674305486271</v>
+      </c>
+      <c r="G7">
+        <v>0.06604800655902392</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>15</v>
       </c>
-      <c r="C7" t="b">
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.002119832502906853</v>
+      </c>
+      <c r="E8">
+        <v>0.00262854344740678</v>
+      </c>
+      <c r="F8">
+        <v>0.0113696229431746</v>
+      </c>
+      <c r="G8">
+        <v>0.002406939899718223</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.03335534372882198</v>
+      </c>
+      <c r="E9">
+        <v>0.02812819298054529</v>
+      </c>
+      <c r="F9">
+        <v>0.1221912811422852</v>
+      </c>
+      <c r="G9">
+        <v>0.04865223754116077</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D10">
+        <v>0.05598708280918556</v>
+      </c>
+      <c r="E10">
+        <v>0.07081928761417482</v>
+      </c>
+      <c r="F10">
+        <v>0.3714526161416809</v>
+      </c>
+      <c r="G10">
+        <v>0.005167383837208125</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.1037751157421877</v>
+      </c>
+      <c r="E11">
+        <v>0.1012359849799753</v>
+      </c>
+      <c r="F11">
+        <v>0.1638514317245362</v>
+      </c>
+      <c r="G11">
+        <v>0.1112472567226847</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.04926232548982945</v>
+      </c>
+      <c r="E12">
+        <v>0.05027155785436221</v>
+      </c>
+      <c r="F12">
+        <v>0.1056477568441481</v>
+      </c>
+      <c r="G12">
+        <v>0.05967054229483423</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.08164015156627921</v>
+      </c>
+      <c r="E13">
+        <v>0.08071131653274666</v>
+      </c>
+      <c r="F13">
+        <v>0.1036376959285681</v>
+      </c>
+      <c r="G13">
+        <v>0.08437757868216193</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.04521734202520741</v>
+      </c>
+      <c r="E14">
+        <v>0.04369464179066307</v>
+      </c>
+      <c r="F14">
+        <v>0.08332152410215898</v>
+      </c>
+      <c r="G14">
+        <v>0.04994229837770425</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.03985682015332189</v>
+      </c>
+      <c r="E15">
+        <v>0.04062836719702793</v>
+      </c>
+      <c r="F15">
+        <v>0.0422178801500489</v>
+      </c>
+      <c r="G15">
+        <v>0.04140393459587999</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>0.04964217664542155</v>
       </c>
-      <c r="E7">
+      <c r="E16">
         <v>0.05019881740540207</v>
       </c>
-      <c r="F7">
+      <c r="F16">
         <v>0.03112076637644179</v>
       </c>
-      <c r="G7">
+      <c r="G16">
         <v>0.04677496815646387</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.03703893368821247</v>
+      </c>
+      <c r="E17">
+        <v>0.03668520634206696</v>
+      </c>
+      <c r="F17">
+        <v>0.04208760657302209</v>
+      </c>
+      <c r="G17">
+        <v>0.03968397623199431</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
         <v>1</v>
       </c>
     </row>

--- a/experiment_results.xlsx
+++ b/experiment_results.xlsx
@@ -14,24 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>num_points_each_iteration</t>
   </si>
   <si>
     <t>random_sampling</t>
-  </si>
-  <si>
-    <t>relative_alpha_error_after_10_iterations</t>
-  </si>
-  <si>
-    <t>relative_alpha_error_after_15_iterations</t>
-  </si>
-  <si>
-    <t>relative_alpha_error_after_1_iteration</t>
-  </si>
-  <si>
-    <t>relative_alpha_error_after_5_iterations</t>
   </si>
   <si>
     <t>relative_alpha_error_after_iteration_1</t>
@@ -41,15 +29,6 @@
   </si>
   <si>
     <t>relative_alpha_error_after_iteration_15</t>
-  </si>
-  <si>
-    <t>relative_alpha_error_after_iteration_20</t>
-  </si>
-  <si>
-    <t>relative_alpha_error_after_iteration_25</t>
-  </si>
-  <si>
-    <t>relative_alpha_error_after_iteration_30</t>
   </si>
   <si>
     <t>relative_alpha_error_after_iteration_5</t>
@@ -410,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,29 +414,8 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -468,40 +426,19 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>3.044012606912228</v>
+        <v>2.717047823132128</v>
       </c>
       <c r="E2">
-        <v>2.130937395382903</v>
+        <v>1.294697309447686</v>
       </c>
       <c r="F2">
-        <v>3.216466245049682</v>
+        <v>0.8786615770027312</v>
       </c>
       <c r="G2">
-        <v>3.62264496822141</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>2.389980748059801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -512,40 +449,19 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.3309258782030115</v>
+        <v>0.002990230386542744</v>
       </c>
       <c r="E3">
-        <v>0.2345183003469831</v>
+        <v>0.01075151096857592</v>
       </c>
       <c r="F3">
-        <v>2.999602228464676</v>
+        <v>0.002413186324267865</v>
       </c>
       <c r="G3">
-        <v>0.6171263959040454</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>0.006976853060635668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -556,40 +472,19 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.01715952240747887</v>
+        <v>0.05938908374888659</v>
       </c>
       <c r="E4">
-        <v>0.01206668888703077</v>
+        <v>0.02977674883433923</v>
       </c>
       <c r="F4">
-        <v>0.003019191485913453</v>
+        <v>0.03086605356512895</v>
       </c>
       <c r="G4">
-        <v>0.037988472957645</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0.03641558944654621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -600,40 +495,19 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.4522684607042003</v>
+        <v>0.02538605013603534</v>
       </c>
       <c r="E5">
-        <v>0.3154538378704121</v>
+        <v>0.01640459566034332</v>
       </c>
       <c r="F5">
-        <v>4.393448314198348</v>
+        <v>0.01916024759184972</v>
       </c>
       <c r="G5">
-        <v>0.867194547100209</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>0.00891768075882482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -644,40 +518,19 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.002449663771459758</v>
+        <v>0.001287470726655989</v>
       </c>
       <c r="E6">
-        <v>0.004050794796050343</v>
+        <v>0.02887033941941175</v>
       </c>
       <c r="F6">
-        <v>0.01908844686755858</v>
+        <v>0.02787696376339096</v>
       </c>
       <c r="G6">
-        <v>0.001048577541693704</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>0.02262160853737705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -688,40 +541,19 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.04635185796960817</v>
+        <v>0.02333771347491261</v>
       </c>
       <c r="E7">
-        <v>0.03935749562623733</v>
+        <v>0.00717150776429698</v>
       </c>
       <c r="F7">
-        <v>0.02210674305486271</v>
+        <v>0.006828435301917865</v>
       </c>
       <c r="G7">
-        <v>0.06604800655902392</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>0.005400970585088631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -732,40 +564,19 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.002119832502906853</v>
+        <v>0.01601261645363968</v>
       </c>
       <c r="E8">
-        <v>0.00262854344740678</v>
+        <v>0.01018788890474964</v>
       </c>
       <c r="F8">
-        <v>0.0113696229431746</v>
+        <v>0.009876392403068517</v>
       </c>
       <c r="G8">
-        <v>0.002406939899718223</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>0.01165205888990495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -776,40 +587,19 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.03335534372882198</v>
+        <v>0.01928088929005275</v>
       </c>
       <c r="E9">
-        <v>0.02812819298054529</v>
+        <v>0.01928688441483658</v>
       </c>
       <c r="F9">
-        <v>0.1221912811422852</v>
+        <v>0.01920325312573375</v>
       </c>
       <c r="G9">
-        <v>0.04865223754116077</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.0171955972014561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -820,40 +610,19 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0.3714526161416809</v>
+      </c>
+      <c r="E10">
         <v>0.05598708280918556</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.07081928761417482</v>
-      </c>
-      <c r="F10">
-        <v>0.3714526161416809</v>
       </c>
       <c r="G10">
         <v>0.005167383837208125</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -864,40 +633,19 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>0.1638514317245362</v>
+      </c>
+      <c r="E11">
         <v>0.1037751157421877</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.1012359849799753</v>
-      </c>
-      <c r="F11">
-        <v>0.1638514317245362</v>
       </c>
       <c r="G11">
         <v>0.1112472567226847</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -908,40 +656,19 @@
         <v>0</v>
       </c>
       <c r="D12">
+        <v>0.1056477568441481</v>
+      </c>
+      <c r="E12">
         <v>0.04926232548982945</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.05027155785436221</v>
-      </c>
-      <c r="F12">
-        <v>0.1056477568441481</v>
       </c>
       <c r="G12">
         <v>0.05967054229483423</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -952,40 +679,19 @@
         <v>0</v>
       </c>
       <c r="D13">
+        <v>0.1036376959285681</v>
+      </c>
+      <c r="E13">
         <v>0.08164015156627921</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.08071131653274666</v>
-      </c>
-      <c r="F13">
-        <v>0.1036376959285681</v>
       </c>
       <c r="G13">
         <v>0.08437757868216193</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -996,40 +702,19 @@
         <v>0</v>
       </c>
       <c r="D14">
+        <v>0.08332152410215898</v>
+      </c>
+      <c r="E14">
         <v>0.04521734202520741</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.04369464179066307</v>
-      </c>
-      <c r="F14">
-        <v>0.08332152410215898</v>
       </c>
       <c r="G14">
         <v>0.04994229837770425</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1040,40 +725,19 @@
         <v>0</v>
       </c>
       <c r="D15">
+        <v>0.0422178801500489</v>
+      </c>
+      <c r="E15">
         <v>0.03985682015332189</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.04062836719702793</v>
-      </c>
-      <c r="F15">
-        <v>0.0422178801500489</v>
       </c>
       <c r="G15">
         <v>0.04140393459587999</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1084,40 +748,19 @@
         <v>0</v>
       </c>
       <c r="D16">
+        <v>0.03112076637644179</v>
+      </c>
+      <c r="E16">
         <v>0.04964217664542155</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.05019881740540207</v>
-      </c>
-      <c r="F16">
-        <v>0.03112076637644179</v>
       </c>
       <c r="G16">
         <v>0.04677496815646387</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1128,37 +771,16 @@
         <v>0</v>
       </c>
       <c r="D17">
+        <v>0.04208760657302209</v>
+      </c>
+      <c r="E17">
         <v>0.03703893368821247</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.03668520634206696</v>
-      </c>
-      <c r="F17">
-        <v>0.04208760657302209</v>
       </c>
       <c r="G17">
         <v>0.03968397623199431</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_results.xlsx
+++ b/experiment_results.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,22 +420,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.717047823132128</v>
+        <v>0.08332152410215898</v>
       </c>
       <c r="E2">
-        <v>1.294697309447686</v>
+        <v>0.04521734202520741</v>
       </c>
       <c r="F2">
-        <v>0.8786615770027312</v>
+        <v>0.04369464179066307</v>
       </c>
       <c r="G2">
-        <v>2.389980748059801</v>
+        <v>0.04994229837770425</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -443,22 +443,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.002990230386542744</v>
+        <v>0.0422178801500489</v>
       </c>
       <c r="E3">
-        <v>0.01075151096857592</v>
+        <v>0.03985682015332189</v>
       </c>
       <c r="F3">
-        <v>0.002413186324267865</v>
+        <v>0.04062836719702793</v>
       </c>
       <c r="G3">
-        <v>0.006976853060635668</v>
+        <v>0.04140393459587999</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -466,22 +466,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05938908374888659</v>
+        <v>0.03112076637644179</v>
       </c>
       <c r="E4">
-        <v>0.02977674883433923</v>
+        <v>0.04964217664542155</v>
       </c>
       <c r="F4">
-        <v>0.03086605356512895</v>
+        <v>0.05019881740540207</v>
       </c>
       <c r="G4">
-        <v>0.03641558944654621</v>
+        <v>0.04677496815646387</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,297 +489,21 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02538605013603534</v>
+        <v>0.04208760657302209</v>
       </c>
       <c r="E5">
-        <v>0.01640459566034332</v>
+        <v>0.03703893368821247</v>
       </c>
       <c r="F5">
-        <v>0.01916024759184972</v>
+        <v>0.03668520634206696</v>
       </c>
       <c r="G5">
-        <v>0.00891768075882482</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>11</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0.001287470726655989</v>
-      </c>
-      <c r="E6">
-        <v>0.02887033941941175</v>
-      </c>
-      <c r="F6">
-        <v>0.02787696376339096</v>
-      </c>
-      <c r="G6">
-        <v>0.02262160853737705</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>13</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0.02333771347491261</v>
-      </c>
-      <c r="E7">
-        <v>0.00717150776429698</v>
-      </c>
-      <c r="F7">
-        <v>0.006828435301917865</v>
-      </c>
-      <c r="G7">
-        <v>0.005400970585088631</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>15</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0.01601261645363968</v>
-      </c>
-      <c r="E8">
-        <v>0.01018788890474964</v>
-      </c>
-      <c r="F8">
-        <v>0.009876392403068517</v>
-      </c>
-      <c r="G8">
-        <v>0.01165205888990495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>17</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0.01928088929005275</v>
-      </c>
-      <c r="E9">
-        <v>0.01928688441483658</v>
-      </c>
-      <c r="F9">
-        <v>0.01920325312573375</v>
-      </c>
-      <c r="G9">
-        <v>0.0171955972014561</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0.3714526161416809</v>
-      </c>
-      <c r="E10">
-        <v>0.05598708280918556</v>
-      </c>
-      <c r="F10">
-        <v>0.07081928761417482</v>
-      </c>
-      <c r="G10">
-        <v>0.005167383837208125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0.1638514317245362</v>
-      </c>
-      <c r="E11">
-        <v>0.1037751157421877</v>
-      </c>
-      <c r="F11">
-        <v>0.1012359849799753</v>
-      </c>
-      <c r="G11">
-        <v>0.1112472567226847</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0.1056477568441481</v>
-      </c>
-      <c r="E12">
-        <v>0.04926232548982945</v>
-      </c>
-      <c r="F12">
-        <v>0.05027155785436221</v>
-      </c>
-      <c r="G12">
-        <v>0.05967054229483423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>9</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0.1036376959285681</v>
-      </c>
-      <c r="E13">
-        <v>0.08164015156627921</v>
-      </c>
-      <c r="F13">
-        <v>0.08071131653274666</v>
-      </c>
-      <c r="G13">
-        <v>0.08437757868216193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0.08332152410215898</v>
-      </c>
-      <c r="E14">
-        <v>0.04521734202520741</v>
-      </c>
-      <c r="F14">
-        <v>0.04369464179066307</v>
-      </c>
-      <c r="G14">
-        <v>0.04994229837770425</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0.0422178801500489</v>
-      </c>
-      <c r="E15">
-        <v>0.03985682015332189</v>
-      </c>
-      <c r="F15">
-        <v>0.04062836719702793</v>
-      </c>
-      <c r="G15">
-        <v>0.04140393459587999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0.03112076637644179</v>
-      </c>
-      <c r="E16">
-        <v>0.04964217664542155</v>
-      </c>
-      <c r="F16">
-        <v>0.05019881740540207</v>
-      </c>
-      <c r="G16">
-        <v>0.04677496815646387</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>17</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0.04208760657302209</v>
-      </c>
-      <c r="E17">
-        <v>0.03703893368821247</v>
-      </c>
-      <c r="F17">
-        <v>0.03668520634206696</v>
-      </c>
-      <c r="G17">
         <v>0.03968397623199431</v>
       </c>
     </row>

--- a/experiment_results.xlsx
+++ b/experiment_results.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,19 +423,19 @@
         <v>11</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.08332152410215898</v>
+        <v>0.04534441350700506</v>
       </c>
       <c r="E2">
-        <v>0.04521734202520741</v>
+        <v>0.011976318838956</v>
       </c>
       <c r="F2">
-        <v>0.04369464179066307</v>
+        <v>0.01284392284584176</v>
       </c>
       <c r="G2">
-        <v>0.04994229837770425</v>
+        <v>0.02083450178613222</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -446,19 +446,19 @@
         <v>13</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0422178801500489</v>
+        <v>0.03050784712313533</v>
       </c>
       <c r="E3">
-        <v>0.03985682015332189</v>
+        <v>0.02594721114435243</v>
       </c>
       <c r="F3">
-        <v>0.04062836719702793</v>
+        <v>0.02119455479646741</v>
       </c>
       <c r="G3">
-        <v>0.04140393459587999</v>
+        <v>0.03118826722889786</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -469,19 +469,19 @@
         <v>15</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0.03112076637644179</v>
+        <v>0.01806091714690409</v>
       </c>
       <c r="E4">
-        <v>0.04964217664542155</v>
+        <v>0.005516841817395461</v>
       </c>
       <c r="F4">
-        <v>0.05019881740540207</v>
+        <v>0.008105198904064064</v>
       </c>
       <c r="G4">
-        <v>0.04677496815646387</v>
+        <v>0.003091878918936401</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -492,19 +492,939 @@
         <v>17</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.04208760657302209</v>
+        <v>0.008023746714688196</v>
       </c>
       <c r="E5">
-        <v>0.03703893368821247</v>
+        <v>0.003501045252721954</v>
       </c>
       <c r="F5">
-        <v>0.03668520634206696</v>
+        <v>0.007651691284343842</v>
       </c>
       <c r="G5">
-        <v>0.03968397623199431</v>
+        <v>0.003468165430649724</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.02032657293605929</v>
+      </c>
+      <c r="E6">
+        <v>0.01640726283958227</v>
+      </c>
+      <c r="F6">
+        <v>0.0202587381678182</v>
+      </c>
+      <c r="G6">
+        <v>0.007865222717550932</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.02782466255569512</v>
+      </c>
+      <c r="E7">
+        <v>0.02004576517612877</v>
+      </c>
+      <c r="F7">
+        <v>0.02019439419182478</v>
+      </c>
+      <c r="G7">
+        <v>0.01543503034726205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.08299814911175818</v>
+      </c>
+      <c r="E8">
+        <v>0.02697892719653798</v>
+      </c>
+      <c r="F8">
+        <v>0.02108190499067075</v>
+      </c>
+      <c r="G8">
+        <v>0.05280204988250529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.0580061491722994</v>
+      </c>
+      <c r="E9">
+        <v>0.03021289588026074</v>
+      </c>
+      <c r="F9">
+        <v>0.0244025598530917</v>
+      </c>
+      <c r="G9">
+        <v>0.0369008211688258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.02535561980865335</v>
+      </c>
+      <c r="E10">
+        <v>0.02522279211161197</v>
+      </c>
+      <c r="F10">
+        <v>0.02210902465526429</v>
+      </c>
+      <c r="G10">
+        <v>0.02355275679316945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.01055869908952327</v>
+      </c>
+      <c r="E11">
+        <v>0.002619237804544576</v>
+      </c>
+      <c r="F11">
+        <v>0.003693119618225309</v>
+      </c>
+      <c r="G11">
+        <v>0.003684885400172533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.02320237064490009</v>
+      </c>
+      <c r="E12">
+        <v>0.01968192130422967</v>
+      </c>
+      <c r="F12">
+        <v>0.01498658874180455</v>
+      </c>
+      <c r="G12">
+        <v>0.02848210080813485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>17</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.00743654303208959</v>
+      </c>
+      <c r="E13">
+        <v>0.002974475537954047</v>
+      </c>
+      <c r="F13">
+        <v>0.006640037241220273</v>
+      </c>
+      <c r="G13">
+        <v>0.001178652602681167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.03765683478118417</v>
+      </c>
+      <c r="E14">
+        <v>0.03139680067962077</v>
+      </c>
+      <c r="F14">
+        <v>0.03002023004927671</v>
+      </c>
+      <c r="G14">
+        <v>0.03340727975358301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.003527260988207548</v>
+      </c>
+      <c r="E15">
+        <v>0.0106987245104706</v>
+      </c>
+      <c r="F15">
+        <v>0.01343036973495711</v>
+      </c>
+      <c r="G15">
+        <v>0.002543933620277235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.03476711424484488</v>
+      </c>
+      <c r="E16">
+        <v>0.01534067828461605</v>
+      </c>
+      <c r="F16">
+        <v>0.01321747762859427</v>
+      </c>
+      <c r="G16">
+        <v>0.02632131983834477</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.01058821735871518</v>
+      </c>
+      <c r="E17">
+        <v>0.0136861608950926</v>
+      </c>
+      <c r="F17">
+        <v>0.01358949705396721</v>
+      </c>
+      <c r="G17">
+        <v>0.01585391519694816</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.009599704667725788</v>
+      </c>
+      <c r="E18">
+        <v>0.006928005971995796</v>
+      </c>
+      <c r="F18">
+        <v>0.004130716945033863</v>
+      </c>
+      <c r="G18">
+        <v>0.0003577557276374099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0.02206969155686078</v>
+      </c>
+      <c r="E19">
+        <v>0.01333471669774655</v>
+      </c>
+      <c r="F19">
+        <v>0.01319892421722924</v>
+      </c>
+      <c r="G19">
+        <v>0.01719898470121958</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.01405245828497289</v>
+      </c>
+      <c r="E20">
+        <v>0.009881142708183521</v>
+      </c>
+      <c r="F20">
+        <v>0.01101781783579022</v>
+      </c>
+      <c r="G20">
+        <v>0.008994083154025095</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.03313380419460629</v>
+      </c>
+      <c r="E21">
+        <v>0.02870860899039263</v>
+      </c>
+      <c r="F21">
+        <v>0.02709303941983895</v>
+      </c>
+      <c r="G21">
+        <v>0.03908902739190367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.05693222417269735</v>
+      </c>
+      <c r="E22">
+        <v>0.007413154060973612</v>
+      </c>
+      <c r="F22">
+        <v>0.005623286340714073</v>
+      </c>
+      <c r="G22">
+        <v>0.02873507766463372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.002901653588063084</v>
+      </c>
+      <c r="E23">
+        <v>0.02583805118178425</v>
+      </c>
+      <c r="F23">
+        <v>0.01930951397744426</v>
+      </c>
+      <c r="G23">
+        <v>0.02903756243373616</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.0237922922512492</v>
+      </c>
+      <c r="E24">
+        <v>0.004522602400651906</v>
+      </c>
+      <c r="F24">
+        <v>0.001579867715357786</v>
+      </c>
+      <c r="G24">
+        <v>0.00856222146744116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>17</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.01005192155997814</v>
+      </c>
+      <c r="E25">
+        <v>0.01895116657975001</v>
+      </c>
+      <c r="F25">
+        <v>0.01888517387494423</v>
+      </c>
+      <c r="G25">
+        <v>0.01931026369555759</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0.0203970015252362</v>
+      </c>
+      <c r="E26">
+        <v>0.007162207849791824</v>
+      </c>
+      <c r="F26">
+        <v>0.003880968100258286</v>
+      </c>
+      <c r="G26">
+        <v>0.009391476162206962</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.03321609942944911</v>
+      </c>
+      <c r="E27">
+        <v>0.01230910347811957</v>
+      </c>
+      <c r="F27">
+        <v>0.01201982376870081</v>
+      </c>
+      <c r="G27">
+        <v>0.01548026230153913</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>15</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0.02177010430511791</v>
+      </c>
+      <c r="E28">
+        <v>0.01278413320731272</v>
+      </c>
+      <c r="F28">
+        <v>0.0120548742692933</v>
+      </c>
+      <c r="G28">
+        <v>0.01414162278342845</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>17</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0.02791045004881624</v>
+      </c>
+      <c r="E29">
+        <v>0.00871151184522893</v>
+      </c>
+      <c r="F29">
+        <v>0.00419135032250458</v>
+      </c>
+      <c r="G29">
+        <v>0.009352620727819394</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0.02182361389584405</v>
+      </c>
+      <c r="E30">
+        <v>0.02470081495007807</v>
+      </c>
+      <c r="F30">
+        <v>0.0193803197124028</v>
+      </c>
+      <c r="G30">
+        <v>0.04488640507980628</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>13</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0.1939611831904011</v>
+      </c>
+      <c r="E31">
+        <v>0.0422603336894097</v>
+      </c>
+      <c r="F31">
+        <v>0.02903022797421588</v>
+      </c>
+      <c r="G31">
+        <v>0.07324298455638312</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0.01924566159566765</v>
+      </c>
+      <c r="E32">
+        <v>0.00301852458544342</v>
+      </c>
+      <c r="F32">
+        <v>0.002850315542490452</v>
+      </c>
+      <c r="G32">
+        <v>0.01221209137381181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>17</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0.01134629093750765</v>
+      </c>
+      <c r="E33">
+        <v>0.01519642134475326</v>
+      </c>
+      <c r="F33">
+        <v>0.01377647095727852</v>
+      </c>
+      <c r="G33">
+        <v>0.01941033684387657</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0.00967280866378965</v>
+      </c>
+      <c r="E34">
+        <v>0.01180821795745468</v>
+      </c>
+      <c r="F34">
+        <v>0.01194795761315204</v>
+      </c>
+      <c r="G34">
+        <v>0.01789014935729046</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>13</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0.002225549589803625</v>
+      </c>
+      <c r="E35">
+        <v>0.009013358652072423</v>
+      </c>
+      <c r="F35">
+        <v>0.007052252892729149</v>
+      </c>
+      <c r="G35">
+        <v>0.008099536457890449</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>15</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0.02126559532694527</v>
+      </c>
+      <c r="E36">
+        <v>0.0261432294321116</v>
+      </c>
+      <c r="F36">
+        <v>0.02508033200501895</v>
+      </c>
+      <c r="G36">
+        <v>0.02127164882060958</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>17</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0.03184605256572567</v>
+      </c>
+      <c r="E37">
+        <v>0.002923057505303343</v>
+      </c>
+      <c r="F37">
+        <v>0.001711419605747537</v>
+      </c>
+      <c r="G37">
+        <v>0.009806491112125578</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0.1232648540614399</v>
+      </c>
+      <c r="E38">
+        <v>0.04661054538829923</v>
+      </c>
+      <c r="F38">
+        <v>0.03588436289668873</v>
+      </c>
+      <c r="G38">
+        <v>0.07317684324636384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>13</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0.02044545487094929</v>
+      </c>
+      <c r="E39">
+        <v>0.02540218881789588</v>
+      </c>
+      <c r="F39">
+        <v>0.0244695099042395</v>
+      </c>
+      <c r="G39">
+        <v>0.01944179085516936</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>15</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0.02751986787458749</v>
+      </c>
+      <c r="E40">
+        <v>0.009512681144747867</v>
+      </c>
+      <c r="F40">
+        <v>0.01201796400251254</v>
+      </c>
+      <c r="G40">
+        <v>0.006802345448259825</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>17</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0.03684489649245744</v>
+      </c>
+      <c r="E41">
+        <v>0.003262111495227297</v>
+      </c>
+      <c r="F41">
+        <v>0.0009810220246658785</v>
+      </c>
+      <c r="G41">
+        <v>0.007099631304793852</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0.226901121134673</v>
+      </c>
+      <c r="E42">
+        <v>0.06967647658273587</v>
+      </c>
+      <c r="F42">
+        <v>0.05810532655244376</v>
+      </c>
+      <c r="G42">
+        <v>0.1072508406832506</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>13</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0.006116272478799978</v>
+      </c>
+      <c r="E43">
+        <v>0.0153634703022663</v>
+      </c>
+      <c r="F43">
+        <v>0.01541475208779656</v>
+      </c>
+      <c r="G43">
+        <v>0.01844863326663726</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>15</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0.1151042966279375</v>
+      </c>
+      <c r="E44">
+        <v>0.03913885101601363</v>
+      </c>
+      <c r="F44">
+        <v>0.03156749756161611</v>
+      </c>
+      <c r="G44">
+        <v>0.04960446620121554</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>17</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0.01508681653516974</v>
+      </c>
+      <c r="E45">
+        <v>0.01694648523238844</v>
+      </c>
+      <c r="F45">
+        <v>0.01694415114039079</v>
+      </c>
+      <c r="G45">
+        <v>0.01480278500234707</v>
       </c>
     </row>
   </sheetData>
